--- a/data/faq_data/FAQ.xlsx
+++ b/data/faq_data/FAQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FAQ_TEST\data\faq_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyWork\FAQ\data\faq_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF72B72-8FF9-4B64-B168-BB7556C6B71A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F6AB42-6657-436C-B2C4-C4642883A07B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10848" windowHeight="9276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>怎么使用</t>
   </si>
@@ -166,110 +166,132 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text: 房车安装的冰箱品牌为: INDEL或多美达。需要根据对应的冰箱品牌描述你的问题呢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text: 房车照明设备分为车内照明和车外照明。车内照明设备有照明灯、厨房灯、卫生间灯、阅读灯、和氛围灯。车外照明设备有遮阳棚灯。
-你可以问‘照明灯怎么使用’这样的问题呢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text: 1、冰箱内部不能直接接触液体；
+    <t>{"text": "1.必须上拉冰箱门锁后才能将冰箱门外旋打开。2.冰箱内温度有机械旋钮调节。" , 
+"image":"2,3"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text": "必须上拉冰箱门锁后才能将冰箱门外旋打开。",
+"image": "2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text": "冰箱内温度有机械旋钮调节。" ,
+"image": "3"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text": "房车安装的冰箱品牌为: INDEL或多美达。需要根据对应的冰箱品牌描述你的问题呢",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text": "冰箱锁止开关需处于右侧（冷藏/冰冻模式）下，才能操作开关冰箱门 ", 
+"image": "4"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text": "冰箱锁止开关需处于右侧（冷藏/冰冻模式）下，才能操作开关冰箱门",
+"image": "4"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text": "房车照明设备分为车内照明和车外照明。车内照明设备有照明灯、厨房灯、卫生间灯、阅读灯、和氛围灯。车外照明设备有遮阳棚灯。
+你可以问‘照明灯怎么使用’这样的问题呢",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text": "1、冰箱内部不能直接接触液体；
 2、冰箱需要定期清洁除霜；
 3、行车过程中确保冰箱门上锁；
 4、需将控制面板上的总电源开关与冰箱开关同时打开才可使用冰箱；
-如冰箱内存储有容易变质食品时，下车时不建议将控制面板上的总电源关闭。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:由控制面板和橱柜立板处开关共同控制。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:由右侧C柱立板处开关控制。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:由卫生间开关控制。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:由阅读灯底座中间的触摸开关控制。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:车外照明使用前需将家居控制面板电源按键打开。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:只能由家居控制面板上的遮阳棚灯开关控制。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text: 1.必须上拉冰箱门锁后才能将冰箱门外旋打开。2.冰箱内温度有机械旋钮调节。  
-image:2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text: 必须上拉冰箱门锁后才能将冰箱门外旋打开。
-image: 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text: 冰箱内温度有机械旋钮调节。 
-image: 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text: 冰箱锁止开关需处于右侧（冷藏/冰冻模式）下，才能操作开关冰箱门   
-image: 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:1、车辆电池电压过低时（25%以下），车内可能导致照明灯无法开启，需及时提前给电池充电；
+5、如冰箱内存储有容易变质食品时，下车时不建议将控制面板上的总电源关闭。",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"由控制面板和橱柜立板处开关共同控制。",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"由右侧C柱立板处开关控制。",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"由卫生间开关控制。",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"由阅读灯底座中间的触摸开关控制。",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"车外照明使用前需将家居控制面板电源按键打开。",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"只能由家居控制面板上的遮阳棚灯开关控制。",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"1、车辆电池电压过低时（25%以下），车内可能导致照明灯无法开启，需及时提前给电池充电；
 2、车外照明安装在遮阳棚下部，使用遮阳棚时请注意不要用摇杆撞击灯带；
-3、LED灯具清洁时请将灯具关闭，并用干净湿布清理灯具表面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:电磁炉在逆变器打开或外接市电情况下得电，开关方式如下：
+3、LED灯具清洁时请将灯具关闭，并用干净湿布清理灯具表面。",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"电磁炉在逆变器打开或外接市电情况下得电，开关方式如下：
 1、打开电磁炉开关（独立控制面板）。
-2、根据所需要烹饪种类选择火力大小。
-Image:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:1、电磁炉使用结束后严禁用手直接触摸，防止烫伤；
-2、电磁炉表面请保持清洁干净。如果外接市电为10A电源插座时使用电磁炉时不要开启地置驻车空调，以免外接电源功率不够触发跳闸。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:智能电视操作详见智能电视操作手册。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:车辆行驶时，请不要将娱乐系统音量调至最大，避免影响驾驶员注意力集中，从而影响行车安全。
+2、根据所需要烹饪种类选择火力大小。",
+"Image":"5"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"1、电磁炉使用结束后严禁用手直接触摸，防止烫伤；
+2、电磁炉表面请保持清洁干净。如果外接市电为10A电源插座时使用电磁炉时不要开启地置驻车空调，以免外接电源功率不够触发跳闸。",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"智能电视操作详见智能电视操作手册。",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"车辆行驶时，请不要将娱乐系统音量调至最大，避免影响驾驶员注意力集中，从而影响行车安全。
 娱乐影音系统使用时需将控制面板上的总电源开关打开。
 由于网络与市场上的视频质量参差不齐，因此一些质量较差的视频使用时，可能会出现视频不能识别无法播放、视频播放出现画面部分马赛克或停顿现象。
 特别高或者特别低的温度会干扰娱乐设备正常功能。一旦车内温度回到正常范围，即可恢复正常功能。如不能恢复，请联系本公司授权服务商进行检修。
-如果车内娱乐影音设备发生故障（电源不通、无图像、无声音）或者处于异常状态（内部有异物、进水、冒烟或者有异味），请勿私自打开设备机盒、拆卸机体。应当立即切断电源，并联系本公司授权服务商进行检修。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:如果车内娱乐影音设备发生故障（电源不通、无图像、无声音）或者处于异常状态（内部有异物、进水、冒烟或者有异味），请勿私自打开设备机盒、拆卸机体。应当立即切断电源，并联系本公司授权服务商进行检修。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:娱乐影音系统使用时需将控制面板上的总电源开关打开。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:由于网络与市场上的视频质量参差不齐，因此一些质量较差的视频使用时，可能会出现视频不能识别无法播放、视频播放出现画面部分马赛克或停顿现象。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text:特别高或者特别低的温度会干扰娱乐设备正常功能。一旦车内温度回到正常范围，即可恢复正常功能。如不能恢复，请联系本公司授权服务商进行检修。</t>
+如果车内娱乐影音设备发生故障（电源不通、无图像、无声音）或者处于异常状态（内部有异物、进水、冒烟或者有异味），请勿私自打开设备机盒、拆卸机体。应当立即切断电源，并联系本公司授权服务商进行检修。",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"如果车内娱乐影音设备发生故障（电源不通、无图像、无声音）或者处于异常状态（内部有异物、进水、冒烟或者有异味），请勿私自打开设备机盒、拆卸机体。应当立即切断电源，并联系本公司授权服务商进行检修。",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"娱乐影音系统使用时需将控制面板上的总电源开关打开。",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"由于网络与市场上的视频质量参差不齐，因此一些质量较差的视频使用时，可能会出现视频不能识别无法播放、视频播放出现画面部分马赛克或停顿现象。",
+"image":"None"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"特别高或者特别低的温度会干扰娱乐设备正常功能。一旦车内温度回到正常范围，即可恢复正常功能。如不能恢复，请联系本公司授权服务商进行检修。",
+"image":"None"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,15 +635,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="94.6640625" customWidth="1"/>
-    <col min="3" max="3" width="61.77734375" customWidth="1"/>
+    <col min="2" max="2" width="94.6328125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,12 +657,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
@@ -651,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -660,12 +682,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -674,12 +696,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -688,12 +710,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -702,12 +724,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -716,12 +738,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -732,106 +754,106 @@
         <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>46</v>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>47</v>
+      <c r="B11" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>48</v>
+      <c r="B12" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>49</v>
+      <c r="B13" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>46</v>
+      <c r="B14" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>50</v>
+      <c r="B15" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>51</v>
+      <c r="B16" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -840,89 +862,89 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="19.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>59</v>
+      <c r="B20" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="56" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>61</v>
+      <c r="B22" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="28" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>62</v>
+      <c r="B23" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="42" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>63</v>
+      <c r="B24" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="42" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>63</v>
+      <c r="B25" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="42" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>64</v>
+      <c r="B26" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -931,6 +953,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>